--- a/medicine/Psychotrope/Louis_Faucon/Louis_Faucon.xlsx
+++ b/medicine/Psychotrope/Louis_Faucon/Louis_Faucon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Faucon (12 mars 1816 à Tarascon[1] - 18 mars 1897 à Graveson[2]) était un propriétaire et viticulteur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Faucon (12 mars 1816 à Tarascon - 18 mars 1897 à Graveson) était un propriétaire et viticulteur français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viticulteur, inventeur du procédé de submersion des vignes, officier de la Légion d'honneur en 1881 [1] pour reconnaître ses succès dans la lutte contre le phyloxéra.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viticulteur, inventeur du procédé de submersion des vignes, officier de la Légion d'honneur en 1881  pour reconnaître ses succès dans la lutte contre le phyloxéra.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sur la maladie de la vigne et sur son traitement par le procédé de la submersion, Paris, Mémoires présentés à l'Académie des sciences, tome XXII no 13, 1874. Concerne le traitement du phylloxéra.</t>
         </is>
